--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA361A0-CE1A-44ED-8A0D-1C22AC7D5C3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongji2018\Desktop\GodEyesProject\CalibPro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B467D-2F49-41A6-B017-95B43EE42972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="29">
   <si>
     <t>cam1</t>
   </si>
@@ -107,28 +117,31 @@
   </si>
   <si>
     <t>AbWD</t>
-  </si>
-  <si>
-    <t>bp1</t>
-  </si>
-  <si>
-    <t>bp2</t>
-  </si>
-  <si>
-    <t>bp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -158,8 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -220,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,1051 +447,1379 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="5" max="5" width="12.6640625"/>
+    <col min="8" max="8" width="12.6640625"/>
+    <col min="11" max="11" width="12.6640625"/>
+    <col min="14" max="14" width="12.6640625"/>
+    <col min="17" max="17" width="12.6640625"/>
+    <col min="20" max="20" width="12.6640625"/>
+    <col min="23" max="23" width="12.6640625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1338.44160412418</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1">
+        <v>1307.5339983623801</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1315.84226793326</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1">
+        <v>1290.8346739825699</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>1304.1174060424401</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="1">
+        <v>1298.71209161565</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2">
-        <v>1318.4909553323</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K2" s="1">
+        <v>1300.6313243989</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2">
-        <v>1329.8332444004</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N2" s="1">
+        <v>1312.7835014708901</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2">
-        <v>1290.14675127089</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Q2" s="1">
+        <v>1296.6103915717499</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
-        <v>1326.55727473609</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" s="1">
+        <v>1317.5612021939901</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2">
-        <v>1304.35881607956</v>
+      <c r="W2" s="1">
+        <v>1303.3514013675299</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>1035.8535989940301</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1">
+        <v>1031.0736205794201</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1018.27964217675</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="1">
+        <v>1019.44360235389</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>1029.6424341433701</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="1">
+        <v>1022.37992611356</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>1024.4650716531301</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3" s="1">
+        <v>1015.25754329581</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3">
-        <v>1035.26648163503</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="N3" s="1">
+        <v>1023.53640479594</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3">
-        <v>1017.77108433053</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="Q3" s="1">
+        <v>1018.12044827487</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3">
-        <v>1047.4030070302699</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="T3" s="1">
+        <v>1030.6497765157801</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W3">
-        <v>1008.3803695379401</v>
+      <c r="W3" s="1">
+        <v>1013.27656243808</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>2494.70607931117</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1">
+        <v>2505.1295428753201</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>2504.9690935438798</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="1">
+        <v>2505.9589832971401</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>2498.9261092183801</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" s="1">
+        <v>2498.5858152760402</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4">
-        <v>2493.3087628604499</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" s="1">
+        <v>2486.5653508715</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4">
-        <v>2500.2028643468502</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="N4" s="1">
+        <v>2487.8101754433701</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4">
-        <v>2490.9860600103898</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Q4" s="1">
+        <v>2484.55797167428</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4">
-        <v>2492.5725545452901</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="T4" s="1">
+        <v>2480.8321718352399</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W4">
-        <v>2501.7731207171501</v>
+      <c r="W4" s="1">
+        <v>2476.7240260999301</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>2491.19615179528</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1">
+        <v>2498.9245469234402</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>2498.84707211658</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1">
+        <v>2497.7025804557502</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>2492.6637134624898</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="1">
+        <v>2497.2509282260999</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5">
-        <v>2487.3126870290398</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" s="1">
+        <v>2492.5031482020599</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5">
-        <v>2494.2614451731101</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="N5" s="1">
+        <v>2493.3697673475499</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q5">
-        <v>2483.7914911113598</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="Q5" s="1">
+        <v>2479.5268671911599</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T5">
-        <v>2487.4693076068002</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="T5" s="1">
+        <v>2485.9900063920199</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W5">
-        <v>2496.3978836137699</v>
+      <c r="W5" s="1">
+        <v>2471.2577057925</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>420.27597431347567</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1">
+        <v>375.24116366420617</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>416.63300341535358</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>410.21963860309052</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>418.94405899080897</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N6">
-        <v>424.48532330867528</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q6">
-        <v>436.91704681134763</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T6">
-        <v>422.3476778412587</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W6">
-        <v>419.6023345920384</v>
+      <c r="W6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>1.2383602317883304</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="1">
+        <v>1.2412025539785865</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>1.2505581889250423</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7">
-        <v>1.2538645413411988</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7">
-        <v>1.2312337526569639</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N7">
-        <v>1.2127002617581808</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q7">
-        <v>1.1894384605552402</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T7">
-        <v>1.1900525968025331</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W7">
-        <v>1.2062694601987696</v>
+      <c r="W7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>217.19630553265685</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="1">
+        <v>324.97243572636046</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>229.05319467225067</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8">
-        <v>251.45740911288181</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8">
-        <v>216.178829704169</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8">
-        <v>192.15078614010068</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q8">
-        <v>157.63743284527277</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T8">
-        <v>197.95814984631667</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W8">
-        <v>212.31720333440791</v>
+      <c r="W8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>8.4652297983285427E-2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="1">
+        <v>-0.1248392678663692</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>-3.0031903308731733E-2</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9">
-        <v>-0.10820473695341049</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9">
-        <v>-0.16940856715882294</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N9">
-        <v>-5.8753042671619266E-2</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q9">
-        <v>3.5452706587773809E-2</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T9">
-        <v>4.3013306696120445E-3</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W9">
-        <v>2.1417195291799088E-2</v>
+      <c r="W9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.94945174436670809</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="1">
+        <v>0.95476483884649033</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0.9452331767349923</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10">
-        <v>0.96098188207937985</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10">
-        <v>0.94281167838593871</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10">
-        <v>0.93783554572156747</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q10">
-        <v>0.92995333938323865</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T10">
-        <v>0.92349969720090319</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W10">
-        <v>0.93545341406637228</v>
+      <c r="W10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>-1.8302880809203975E-4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="1">
+        <v>2.8982077517568079E-4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>7.1851486980800317E-5</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11">
-        <v>2.5583024897193207E-4</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
-        <v>4.0511911380183206E-4</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N11">
-        <v>1.4413668591267006E-4</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q11">
-        <v>-8.7520794288438843E-5</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T11">
-        <v>-1.4517866448733714E-5</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W11">
-        <v>-5.424013967002796E-5</v>
+      <c r="W11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>-2.1739272461464929E-5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="1">
+        <v>-2.5229941968936434E-5</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>-2.03147666901468E-5</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12">
-        <v>-4.3089182189915729E-5</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
-        <v>-2.7350822762035819E-5</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N12">
-        <v>-2.3771303946666386E-5</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q12">
-        <v>-2.1620629800890709E-5</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T12">
-        <v>-5.9072811496783636E-6</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W12">
-        <v>-1.5561351088548708E-5</v>
+      <c r="W12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>9.855818133229437E-8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="1">
+        <v>-1.6875395228105471E-7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
-        <v>-4.2596775698167117E-8</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H13">
-        <v>-1.5058334819064285E-7</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
-        <v>-2.4169384648252298E-7</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N13">
-        <v>-8.7593450956918439E-8</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q13">
-        <v>5.4748819249995926E-8</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T13">
-        <v>1.133568662834098E-8</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W13">
-        <v>3.438251336619535E-8</v>
+      <c r="W13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>1.1046562457612048</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1">
+        <v>1.1448615780773621</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
-        <v>1.1318595977780523</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14">
-        <v>1.1450396400151237</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K14">
-        <v>0.99140553346980231</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N14">
-        <v>1.0225571996449745</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q14">
-        <v>1.0319279118009905</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T14">
-        <v>1.0272526816672167</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W14">
-        <v>1.0408061225224174</v>
+      <c r="W14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>-2.3289922344708368E-4</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="1">
+        <v>-3.3807442139612465E-4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
-        <v>-2.9979434551980161E-4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15">
-        <v>-3.4124464599358392E-4</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K15">
-        <v>2.1246045330772545E-5</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N15">
-        <v>-5.7628023378279331E-5</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q15">
-        <v>-8.8253715957752757E-5</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T15">
-        <v>-6.9810814899606233E-5</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W15">
-        <v>-1.0082267960668624E-4</v>
+      <c r="W15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>-0.30164664477528585</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="1">
+        <v>-3.4555509299391704E-2</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>2.4970729680432777E-2</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H16">
-        <v>0.37904161757976695</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16">
-        <v>0.79710164953469453</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N16">
-        <v>0.43788379796653898</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q16">
-        <v>0.23585483473441968</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T16">
-        <v>-6.9193678906793746E-2</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W16">
-        <v>-0.2831276950944745</v>
+      <c r="W16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>1.2927624709923859E-7</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="1">
+        <v>1.9739566783665085E-7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1.7003468814133127E-7</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17">
-        <v>1.9966826483767846E-7</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K17">
-        <v>-1.3596921396621228E-8</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N17">
-        <v>3.6119835611033705E-8</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q17">
-        <v>5.9381490143259389E-8</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T17">
-        <v>4.4312786594157236E-8</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W17">
-        <v>6.2102985144886093E-8</v>
+      <c r="W17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>2.21097068589665E-4</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="1">
+        <v>3.6760839809683445E-5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18">
-        <v>-1.5835592492099213E-5</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H18">
-        <v>-2.9285910535742908E-4</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18">
-        <v>-6.4518686258314571E-4</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18">
-        <v>-3.4551837574579961E-4</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q18">
-        <v>-1.8627026955536619E-4</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T18">
-        <v>5.0667305306091919E-5</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W18">
-        <v>2.0795110078667184E-4</v>
+      <c r="W18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>-0.46784546401285493</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1">
+        <v>-0.47178321180037303</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>-0.46561640865898885</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19">
-        <v>-0.4846837421162114</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K19">
-        <v>-0.48321881354584401</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N19">
-        <v>-0.47037950474694973</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q19">
-        <v>-0.45604828250570767</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T19">
-        <v>-0.45595374683021</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W19">
-        <v>-0.45638376857230673</v>
+      <c r="W19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <v>38.383000000000003</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20">
-        <v>79.930000000000007</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="1">
+        <v>40.758330000000001</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20">
-        <v>120.506</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20" s="1">
+        <v>81.766670000000005</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K20">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="K20" s="1">
+        <v>122.9417</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N20">
-        <v>202.62799999999999</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="N20" s="1">
+        <v>163.95</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q20">
-        <v>243.83</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="Q20" s="1">
+        <v>204.75829999999999</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T20">
-        <v>284.20800000000003</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="T20" s="1">
+        <v>246.0667</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W20">
-        <v>325.80599999999998</v>
+      <c r="W20" s="1">
+        <v>287.35829999999999</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="1">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E21" s="1">
+        <f>E20+40</f>
+        <v>80.758330000000001</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21" s="1">
+        <f>H20+40</f>
+        <v>121.76667</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M21" t="s">
+      <c r="K21" s="1">
+        <f>K20+40</f>
+        <v>162.9417</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P21" t="s">
+      <c r="N21" s="1">
+        <f>N20+40</f>
+        <v>203.95</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S21" t="s">
+      <c r="Q21" s="1">
+        <f>Q20+40</f>
+        <v>244.75829999999999</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V21" t="s">
+      <c r="T21" s="1">
+        <f>T20+40</f>
+        <v>286.06669999999997</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="W21" s="1">
+        <f>W20+40</f>
+        <v>327.35829999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C595EC-BC7D-4BA9-8EDC-51AF254D6D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C89AC2-7965-4406-A3BB-2B0E22D096B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="T6" s="1">
-        <v>402.67884512598795</v>
+        <v>426.37093227978386</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="1">
-        <v>1.2189805691466518</v>
+        <v>1.2134608580999326</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
@@ -900,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="T8" s="1">
-        <v>250.33020454606233</v>
+        <v>182.09200851950402</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
@@ -957,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="T9" s="1">
-        <v>0.28505939200400543</v>
+        <v>-5.9529071385460965E-2</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
@@ -1014,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="T10" s="1">
-        <v>0.87561473273624513</v>
+        <v>0.96150950769486943</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
@@ -1071,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="T11" s="1">
-        <v>-7.0630092134434249E-4</v>
+        <v>1.3944631257729466E-4</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
@@ -1128,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="T12" s="1">
-        <v>2.8273881411848492E-5</v>
+        <v>-4.1526492641042457E-5</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="T13" s="1">
-        <v>4.381973401205856E-7</v>
+        <v>-8.0668440966409403E-8</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
@@ -1242,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="T14" s="1">
-        <v>1.0869258230498193</v>
+        <v>0.94977136273332075</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
@@ -1299,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="T15" s="1">
-        <v>-2.0835865187153373E-4</v>
+        <v>1.2004675011055647E-4</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
@@ -1356,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="T16" s="1">
-        <v>-0.12266995563431406</v>
+        <v>-0.15528480952384874</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
@@ -1413,7 +1413,7 @@
         <v>23</v>
       </c>
       <c r="T17" s="1">
-        <v>1.2465512213240059E-7</v>
+        <v>-7.1647109472057303E-8</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
@@ -1470,7 +1470,7 @@
         <v>24</v>
       </c>
       <c r="T18" s="1">
-        <v>9.5063597423125477E-5</v>
+        <v>1.2021082917533591E-4</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
@@ -1527,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="1">
-        <v>-0.4426888134902156</v>
+        <v>-0.41490204204113817</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">

--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C89AC2-7965-4406-A3BB-2B0E22D096B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1821AA8-F5B4-4425-93C4-CA4240BBC709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,14 +744,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>377.26062761708511</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>412.44273113994024</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -786,14 +786,14 @@
         <v>12</v>
       </c>
       <c r="T6" s="1">
-        <v>426.37093227978386</v>
+        <v>395.9966462212447</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>428.43990246846988</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -801,14 +801,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1.2400965644292186</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1.2232746588946932</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -843,14 +843,14 @@
         <v>13</v>
       </c>
       <c r="T7" s="1">
-        <v>1.2134608580999326</v>
+        <v>1.2152556472093268</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1.2306754303475338</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -858,14 +858,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>331.51478323308157</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>219.59774148411486</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -900,14 +900,14 @@
         <v>14</v>
       </c>
       <c r="T8" s="1">
-        <v>182.09200851950402</v>
+        <v>273.7783356609367</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>187.49722612829271</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -915,14 +915,14 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>-0.14922891541558994</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.14967391430360349</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -957,14 +957,14 @@
         <v>15</v>
       </c>
       <c r="T9" s="1">
-        <v>-5.9529071385460965E-2</v>
+        <v>-1.6193038295694389E-2</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>-7.5924519318180575E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -972,14 +972,14 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>0.92482031560309053</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.97461967423439511</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -1014,14 +1014,14 @@
         <v>16</v>
       </c>
       <c r="T10" s="1">
-        <v>0.96150950769486943</v>
+        <v>0.99070912248755616</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>0.95060501975858036</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -1029,14 +1029,14 @@
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>3.4627625814244223E-4</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>-3.5811803038471399E-4</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1071,14 +1071,14 @@
         <v>17</v>
       </c>
       <c r="T11" s="1">
-        <v>1.3944631257729466E-4</v>
+        <v>4.0447852030754633E-5</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1.6911865676257648E-4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -1086,14 +1086,14 @@
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>-2.2690460458387492E-5</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-3.7350559251486395E-5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -1128,14 +1128,14 @@
         <v>18</v>
       </c>
       <c r="T12" s="1">
-        <v>-4.1526492641042457E-5</v>
+        <v>-5.2223300126315027E-5</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>-4.2162124937764582E-5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -1143,14 +1143,14 @@
         <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>-2.005066477423915E-7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>2.1238130228933882E-7</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1185,14 +1185,14 @@
         <v>19</v>
       </c>
       <c r="T13" s="1">
-        <v>-8.0668440966409403E-8</v>
+        <v>-2.5134823826257561E-8</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>-9.2854094737968762E-8</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -1200,14 +1200,14 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1.2476296761807386</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1.0417452308799944</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -1242,14 +1242,14 @@
         <v>20</v>
       </c>
       <c r="T14" s="1">
-        <v>0.94977136273332075</v>
+        <v>1.0907434181016935</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1.0612544103922412</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -1257,14 +1257,14 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>-5.8349609685662762E-4</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>-1.0207280455528885E-4</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -1299,14 +1299,14 @@
         <v>21</v>
       </c>
       <c r="T15" s="1">
-        <v>1.2004675011055647E-4</v>
+        <v>-2.2667030589713019E-4</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>-1.4908325149302611E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -1314,14 +1314,14 @@
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1.2837114162999583E-2</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>4.1510342523125375E-2</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1356,14 +1356,14 @@
         <v>22</v>
       </c>
       <c r="T16" s="1">
-        <v>-0.15528480952384874</v>
+        <v>0.1445421001084877</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>-4.9401322707888405E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1371,14 +1371,14 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>3.4307080697785266E-7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>6.2121785808164054E-8</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -1413,14 +1413,14 @@
         <v>23</v>
       </c>
       <c r="T17" s="1">
-        <v>-7.1647109472057303E-8</v>
+        <v>1.4127907221596413E-7</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>9.0427797510678611E-8</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1428,14 +1428,14 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>-8.5378842741944766E-6</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-3.0244848533510759E-5</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -1470,14 +1470,14 @@
         <v>24</v>
       </c>
       <c r="T18" s="1">
-        <v>1.2021082917533591E-4</v>
+        <v>-1.1561615940378931E-4</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>3.4330498960650356E-5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1485,14 +1485,14 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>-0.47364635884439821</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.43722057763595862</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -1527,14 +1527,14 @@
         <v>25</v>
       </c>
       <c r="T19" s="1">
-        <v>-0.41490204204113817</v>
+        <v>-0.42323626649228319</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>-0.51676799307871346</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">

--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1821AA8-F5B4-4425-93C4-CA4240BBC709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2814E-B7CF-41B0-B240-9D3C496162D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W20"/>
     </sheetView>
   </sheetViews>
@@ -758,28 +758,28 @@
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>417.38472788313123</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>385.51517283024828</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>372.53047746730181</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>418.61896726906627</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="W6" s="1">
-        <v>428.43990246846988</v>
+        <v>414.59155703866185</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -815,28 +815,28 @@
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1.2318453018871041</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1.246056901765531</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1.2214832972117868</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1.223475834680041</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
@@ -850,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="W7" s="1">
-        <v>1.2306754303475338</v>
+        <v>1.2336373766496607</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -872,28 +872,28 @@
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>209.51888263814425</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>311.13836131048936</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>349.2570086444328</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>213.28076740643854</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
@@ -907,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>187.49722612829271</v>
+        <v>224.3115926121603</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -929,28 +929,28 @@
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>5.3319008124942972E-3</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>-6.1553359649351075E-2</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>7.0039324356845442E-2</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>-0.16283449030049105</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="W9" s="1">
-        <v>-7.5924519318180575E-2</v>
+        <v>7.4858056619450716E-3</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -986,28 +986,28 @@
         <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1.0275586562146393</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.90500162007239771</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>0.93977305269963918</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1.0496466127945638</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
@@ -1021,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="W10" s="1">
-        <v>0.95060501975858036</v>
+        <v>0.96426375714331347</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -1043,28 +1043,28 @@
         <v>17</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>-1.0937444440933716E-5</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1.5161722284629277E-4</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>-1.6066110677298942E-4</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>3.8819431390388999E-4</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
@@ -1078,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="W11" s="1">
-        <v>1.6911865676257648E-4</v>
+        <v>-1.4747658351105487E-5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -1100,28 +1100,28 @@
         <v>18</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>-7.4551344482779513E-5</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1.8103816404555385E-5</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>-5.2631510924545176E-5</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>-1.4236464555665625E-4</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="W12" s="1">
-        <v>-4.2162124937764582E-5</v>
+        <v>-5.0456921647966996E-5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -1157,28 +1157,28 @@
         <v>19</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>5.0192567424011683E-9</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>-9.4655121247922585E-8</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>9.1104699471319282E-8</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>-2.295085300724407E-7</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
@@ -1192,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="W13" s="1">
-        <v>-9.2854094737968762E-8</v>
+        <v>8.0010843241401366E-9</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -1214,28 +1214,28 @@
         <v>20</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1.0103379997271895</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1.2717505710360166</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1.1565896041320414</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1.0591850835204801</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="W14" s="1">
-        <v>1.0612544103922412</v>
+        <v>1.1212248553798589</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -1271,28 +1271,28 @@
         <v>21</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>-3.033460471162069E-5</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>-6.2668034949167975E-4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>-3.8091465268874923E-4</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>-1.5772219526196605E-4</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="W15" s="1">
-        <v>-1.4908325149302611E-4</v>
+        <v>-2.8565340504354723E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -1328,28 +1328,28 @@
         <v>22</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>2.7822972024428849E-3</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>0.27596444228816069</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>3.542027869425473E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>0.15397624170575072</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
@@ -1363,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="W16" s="1">
-        <v>-4.9401322707888405E-2</v>
+        <v>-5.696386190692438E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1385,28 +1385,28 @@
         <v>23</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2.1201811728213964E-8</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>3.6079807671238336E-7</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>2.3157355456128215E-7</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1.0347318735723433E-7</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
@@ -1420,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="W17" s="1">
-        <v>9.0427797510678611E-8</v>
+        <v>1.6803454996444539E-7</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1442,28 +1442,28 @@
         <v>24</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>-7.1141887634815522E-6</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>-1.991746473730518E-4</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>-3.1215388228709629E-5</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>-1.227085915862596E-4</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
@@ -1477,7 +1477,7 @@
         <v>24</v>
       </c>
       <c r="W18" s="1">
-        <v>3.4330498960650356E-5</v>
+        <v>4.1961317868103062E-5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1499,28 +1499,28 @@
         <v>25</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>-0.46595272887933881</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>-0.50232028017242847</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>-0.38215182836526018</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>-0.50731506991773123</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="W19" s="1">
-        <v>-0.51676799307871346</v>
+        <v>-0.51722390717340161</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">

--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2814E-B7CF-41B0-B240-9D3C496162D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D322E2-AEB2-496B-BA82-09016F2C0E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,56 +744,56 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>377.26062761708511</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>412.44273113994024</v>
+        <v>442.57783250307898</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>417.38472788313123</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1">
-        <v>385.51517283024828</v>
+        <v>432.18685872638656</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="1">
-        <v>372.53047746730181</v>
+        <v>427.00986232776171</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="1">
-        <v>418.61896726906627</v>
+        <v>395.87263662569711</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="1">
-        <v>395.9966462212447</v>
+        <v>264.60007432935669</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W6" s="1">
-        <v>414.59155703866185</v>
+        <v>415.44214382305375</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -801,56 +801,56 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>1.2400965644292186</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>1.2232746588946932</v>
+        <v>1.2470766179992978</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <v>1.2318453018871041</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="1">
-        <v>1.246056901765531</v>
+        <v>1.2379625509763041</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1">
-        <v>1.2214832972117868</v>
+        <v>1.2302053288931263</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.223475834680041</v>
+        <v>1.210508482108495</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="1">
-        <v>1.2152556472093268</v>
+        <v>1.2707780553297445</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W7" s="1">
-        <v>1.2336373766496607</v>
+        <v>1.2126185687161064</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -858,56 +858,56 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>331.51478323308157</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>219.59774148411486</v>
+        <v>131.02929347196422</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <v>209.51888263814425</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="1">
-        <v>311.13836131048936</v>
+        <v>169.99489202919131</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="1">
-        <v>349.2570086444328</v>
+        <v>191.06040697591587</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="1">
-        <v>213.28076740643854</v>
+        <v>270.11168062166183</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8" s="1">
-        <v>273.7783356609367</v>
+        <v>684.1505966703487</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>224.3115926121603</v>
+        <v>219.14486799236963</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -915,56 +915,56 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.14922891541558994</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>0.14967391430360349</v>
+        <v>-0.2411028922254593</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>5.3319008124942972E-3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="1">
-        <v>-6.1553359649351075E-2</v>
+        <v>-2.5854992968612471</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="1">
-        <v>7.0039324356845442E-2</v>
+        <v>-0.13734193778968887</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1">
-        <v>-0.16283449030049105</v>
+        <v>-9.3755927179541607E-2</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="1">
-        <v>-1.6193038295694389E-2</v>
+        <v>-0.13748416564420185</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W9" s="1">
-        <v>7.4858056619450716E-3</v>
+        <v>3.1847265282502743E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -972,56 +972,56 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>0.92482031560309053</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>0.97461967423439511</v>
+        <v>1.0257594035284696</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0275586562146393</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1">
-        <v>0.90500162007239771</v>
+        <v>1.1358487001869144</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="1">
-        <v>0.93977305269963918</v>
+        <v>1.0079394810821154</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.0496466127945638</v>
+        <v>0.95913192670698899</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="1">
-        <v>0.99070912248755616</v>
+        <v>1.1611485907425028</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="1">
-        <v>0.96426375714331347</v>
+        <v>0.92774554700664635</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -1029,56 +1029,56 @@
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>3.4627625814244223E-4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>-3.5811803038471399E-4</v>
+        <v>5.229739435035055E-4</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1">
-        <v>-1.0937444440933716E-5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="1">
-        <v>1.5161722284629277E-4</v>
+        <v>5.8407473290235925E-3</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1">
-        <v>-1.6066110677298942E-4</v>
+        <v>3.1294028487041409E-4</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.8819431390388999E-4</v>
+        <v>2.3704154085226256E-4</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="1">
-        <v>4.0447852030754633E-5</v>
+        <v>3.4410740708201937E-4</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W11" s="1">
-        <v>-1.4747658351105487E-5</v>
+        <v>-7.0488258205445936E-5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -1086,56 +1086,56 @@
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>-2.2690460458387492E-5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1">
-        <v>-3.7350559251486395E-5</v>
+        <v>-1.2773590110351339E-4</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="1">
-        <v>-7.4551344482779513E-5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="1">
-        <v>1.8103816404555385E-5</v>
+        <v>-2.8792124697725409E-4</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="1">
-        <v>-5.2631510924545176E-5</v>
+        <v>-6.0951778076616523E-5</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="1">
-        <v>-1.4236464555665625E-4</v>
+        <v>-3.4316845998210899E-5</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="1">
-        <v>-5.2223300126315027E-5</v>
+        <v>-2.5868165908548386E-4</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="W12" s="1">
-        <v>-5.0456921647966996E-5</v>
+        <v>-2.6560074426046872E-5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -1143,56 +1143,56 @@
         <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>-2.005066477423915E-7</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>2.1238130228933882E-7</v>
+        <v>-2.817421002053448E-7</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="1">
-        <v>5.0192567424011683E-9</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="1">
-        <v>-9.4655121247922585E-8</v>
+        <v>-3.2981190174523347E-6</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="1">
-        <v>9.1104699471319282E-8</v>
+        <v>-1.7791791555844049E-7</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="1">
-        <v>-2.295085300724407E-7</v>
+        <v>-1.5018590181111645E-7</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13" s="1">
-        <v>-2.5134823826257561E-8</v>
+        <v>-2.1213540473185041E-7</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W13" s="1">
-        <v>8.0010843241401366E-9</v>
+        <v>3.8277878666607215E-8</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -1200,56 +1200,56 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2476296761807386</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0417452308799944</v>
+        <v>1.0028562195969548</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0103379997271895</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="1">
-        <v>1.2717505710360166</v>
+        <v>1.0486056180704453</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="1">
-        <v>1.1565896041320414</v>
+        <v>1.0718793376412286</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0591850835204801</v>
+        <v>1.0432674461991223</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="1">
-        <v>1.0907434181016935</v>
+        <v>2.2717404089412851</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W14" s="1">
-        <v>1.1212248553798589</v>
+        <v>1.0493812633124497</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -1257,56 +1257,56 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>-5.8349609685662762E-4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.0207280455528885E-4</v>
+        <v>-1.205476262848713E-5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.033460471162069E-5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1">
-        <v>-6.2668034949167975E-4</v>
+        <v>-1.1236041808676488E-4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="1">
-        <v>-3.8091465268874923E-4</v>
+        <v>-1.7184062858964448E-4</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1">
-        <v>-1.5772219526196605E-4</v>
+        <v>-1.0496184607741685E-4</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15" s="1">
-        <v>-2.2667030589713019E-4</v>
+        <v>-2.7848983050172724E-3</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="1">
-        <v>-2.8565340504354723E-4</v>
+        <v>-1.2197170060693368E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -1314,56 +1314,56 @@
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>1.2837114162999583E-2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="1">
-        <v>4.1510342523125375E-2</v>
+        <v>0.22910582470681978</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1">
-        <v>2.7822972024428849E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="1">
-        <v>0.27596444228816069</v>
+        <v>0.28941234581916875</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N16" s="1">
-        <v>3.542027869425473E-2</v>
+        <v>-3.0874567099019139E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.15397624170575072</v>
+        <v>0.17944568252976265</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16" s="1">
-        <v>0.1445421001084877</v>
+        <v>6.5503716435717355E-2</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W16" s="1">
-        <v>-5.696386190692438E-2</v>
+        <v>0.21493003381173162</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1371,56 +1371,56 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>3.4307080697785266E-7</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1">
-        <v>6.2121785808164054E-8</v>
+        <v>9.687514556643437E-9</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="1">
-        <v>2.1201811728213964E-8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="1">
-        <v>3.6079807671238336E-7</v>
+        <v>6.457210417156402E-8</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="1">
-        <v>2.3157355456128215E-7</v>
+        <v>1.0229935790416947E-7</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.0347318735723433E-7</v>
+        <v>6.3633926070752009E-8</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="1">
-        <v>1.4127907221596413E-7</v>
+        <v>1.524244345134667E-6</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W17" s="1">
-        <v>1.6803454996444539E-7</v>
+        <v>7.5059658092554445E-8</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1428,56 +1428,56 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>-8.5378842741944766E-6</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1">
-        <v>-3.0244848533510759E-5</v>
+        <v>-1.7128053152163709E-4</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="1">
-        <v>-7.1141887634815522E-6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1">
-        <v>-1.991746473730518E-4</v>
+        <v>-2.099507396073081E-4</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N18" s="1">
-        <v>-3.1215388228709629E-5</v>
+        <v>1.8868118559906043E-5</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="1">
-        <v>-1.227085915862596E-4</v>
+        <v>-1.4867106419065064E-4</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18" s="1">
-        <v>-1.1561615940378931E-4</v>
+        <v>-7.5647147805293005E-5</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="W18" s="1">
-        <v>4.1961317868103062E-5</v>
+        <v>-1.7219647310054168E-4</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1485,56 +1485,56 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.47364635884439821</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.43722057763595862</v>
+        <v>-0.53456566771372227</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="1">
-        <v>-0.46595272887933881</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="1">
-        <v>-0.50232028017242847</v>
+        <v>-0.50424520475040002</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="1">
-        <v>-0.38215182836526018</v>
+        <v>-0.45675813176519686</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="1">
-        <v>-0.50731506991773123</v>
+        <v>-0.38261119560909418</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19" s="1">
-        <v>-0.42323626649228319</v>
+        <v>-0.5041951645729208</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="W19" s="1">
-        <v>-0.51722390717340161</v>
+        <v>-0.42658800672376473</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">

--- a/CameraParam.xlsx
+++ b/CameraParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D322E2-AEB2-496B-BA82-09016F2C0E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D099E-152D-45C2-800D-7057E8BD75B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32409" yWindow="1380" windowWidth="29245" windowHeight="12737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W20"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>442.57783250307898</v>
+        <v>382.37707044870626</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -765,35 +765,35 @@
         <v>12</v>
       </c>
       <c r="K6" s="1">
-        <v>432.18685872638656</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="1">
-        <v>427.00986232776171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="1">
-        <v>395.87263662569711</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="1">
-        <v>264.60007432935669</v>
+        <v>414.92039324926651</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W6" s="1">
-        <v>415.44214382305375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>1.2470766179992978</v>
+        <v>1.237075856212648</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -822,35 +822,35 @@
         <v>13</v>
       </c>
       <c r="K7" s="1">
-        <v>1.2379625509763041</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1">
-        <v>1.2302053288931263</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.210508482108495</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="1">
-        <v>1.2707780553297445</v>
+        <v>1.2135839075048422</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W7" s="1">
-        <v>1.2126185687161064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>131.02929347196422</v>
+        <v>313.67539018295321</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -879,35 +879,35 @@
         <v>14</v>
       </c>
       <c r="K8" s="1">
-        <v>169.99489202919131</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="1">
-        <v>191.06040697591587</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="1">
-        <v>270.11168062166183</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8" s="1">
-        <v>684.1505966703487</v>
+        <v>216.5685455702928</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>219.14486799236963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.2411028922254593</v>
+        <v>-4.4611051558728049E-2</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -936,35 +936,35 @@
         <v>15</v>
       </c>
       <c r="K9" s="1">
-        <v>-2.5854992968612471</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="1">
-        <v>-0.13734193778968887</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1">
-        <v>-9.3755927179541607E-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="1">
-        <v>-0.13748416564420185</v>
+        <v>4.2804898503227056E-3</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W9" s="1">
-        <v>3.1847265282502743E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0257594035284696</v>
+        <v>0.96206690119356597</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -993,35 +993,35 @@
         <v>16</v>
       </c>
       <c r="K10" s="1">
-        <v>1.1358487001869144</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0079394810821154</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.95913192670698899</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="1">
-        <v>1.1611485907425028</v>
+        <v>1.0083649836185571</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="1">
-        <v>0.92774554700664635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -1036,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>5.229739435035055E-4</v>
+        <v>1.0869907345273367E-4</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1050,35 +1050,35 @@
         <v>17</v>
       </c>
       <c r="K11" s="1">
-        <v>5.8407473290235925E-3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="1">
-        <v>3.1294028487041409E-4</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.3704154085226256E-4</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="1">
-        <v>3.4410740708201937E-4</v>
+        <v>-1.3092854322313775E-5</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W11" s="1">
-        <v>-7.0488258205445936E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.2773590110351339E-4</v>
+        <v>-2.2343832143676411E-5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -1107,35 +1107,35 @@
         <v>18</v>
       </c>
       <c r="K12" s="1">
-        <v>-2.8792124697725409E-4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="1">
-        <v>-6.0951778076616523E-5</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="1">
-        <v>-3.4316845998210899E-5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="1">
-        <v>-2.5868165908548386E-4</v>
+        <v>-1.029472370537567E-4</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="W12" s="1">
-        <v>-2.6560074426046872E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>-2.817421002053448E-7</v>
+        <v>-6.574658817802249E-8</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1164,35 +1164,35 @@
         <v>19</v>
       </c>
       <c r="K13" s="1">
-        <v>-3.2981190174523347E-6</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="1">
-        <v>-1.7791791555844049E-7</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="1">
-        <v>-1.5018590181111645E-7</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13" s="1">
-        <v>-2.1213540473185041E-7</v>
+        <v>9.3348812431775648E-9</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W13" s="1">
-        <v>3.8277878666607215E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0028562195969548</v>
+        <v>1.0440689458539125</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -1221,35 +1221,35 @@
         <v>20</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0486056180704453</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0718793376412286</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0432674461991223</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="1">
-        <v>2.2717404089412851</v>
+        <v>1.0247317426177331</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W14" s="1">
-        <v>1.0493812633124497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -1264,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.205476262848713E-5</v>
+        <v>-1.1620582434981155E-4</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -1278,35 +1278,35 @@
         <v>21</v>
       </c>
       <c r="K15" s="1">
-        <v>-1.1236041808676488E-4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="1">
-        <v>-1.7184062858964448E-4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="1">
-        <v>-1.0496184607741685E-4</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15" s="1">
-        <v>-2.7848983050172724E-3</v>
+        <v>-6.5027432578301575E-5</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="1">
-        <v>-1.2197170060693368E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="1">
-        <v>0.22910582470681978</v>
+        <v>-0.32696210403023651</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1335,35 +1335,35 @@
         <v>22</v>
       </c>
       <c r="K16" s="1">
-        <v>0.28941234581916875</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N16" s="1">
-        <v>-3.0874567099019139E-2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.17944568252976265</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16" s="1">
-        <v>6.5503716435717355E-2</v>
+        <v>-0.38298406575693938</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W16" s="1">
-        <v>0.21493003381173162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1378,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="1">
-        <v>9.687514556643437E-9</v>
+        <v>7.5485521720669503E-8</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -1392,35 +1392,35 @@
         <v>23</v>
       </c>
       <c r="K17" s="1">
-        <v>6.457210417156402E-8</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="1">
-        <v>1.0229935790416947E-7</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.3633926070752009E-8</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="1">
-        <v>1.524244345134667E-6</v>
+        <v>4.1941537472720089E-8</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W17" s="1">
-        <v>7.5059658092554445E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1435,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="1">
-        <v>-1.7128053152163709E-4</v>
+        <v>2.6650796299316755E-4</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -1449,35 +1449,35 @@
         <v>24</v>
       </c>
       <c r="K18" s="1">
-        <v>-2.099507396073081E-4</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N18" s="1">
-        <v>1.8868118559906043E-5</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="1">
-        <v>-1.4867106419065064E-4</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18" s="1">
-        <v>-7.5647147805293005E-5</v>
+        <v>3.0143555784516277E-4</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="W18" s="1">
-        <v>-1.7219647310054168E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1492,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.53456566771372227</v>
+        <v>-0.44361520441837204</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -1506,35 +1506,35 @@
         <v>25</v>
       </c>
       <c r="K19" s="1">
-        <v>-0.50424520475040002</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="1">
-        <v>-0.45675813176519686</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="1">
-        <v>-0.38261119560909418</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19" s="1">
-        <v>-0.5041951645729208</v>
+        <v>-0.41594987678842327</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="W19" s="1">
-        <v>-0.42658800672376473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
